--- a/Bio3/Bio3NgcOption20180411.xlsx
+++ b/Bio3/Bio3NgcOption20180411.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\MySelfProject\Hanhua\TodoCn\HanhuaProject\Bio3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22056" windowHeight="11556" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="22050" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="start.dol_5" sheetId="8" r:id="rId1"/>
@@ -146,57 +151,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开^81 40^^0^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＹＥＳ^a^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＮＯ^a^</t>
+  </si>
+  <si>
+    <t>^25^</t>
+  </si>
+  <si>
+    <t>^30^</t>
+  </si>
+  <si>
+    <t>^33^</t>
+  </si>
+  <si>
+    <t>^64^</t>
+  </si>
+  <si>
+    <t>^a^</t>
+  </si>
+  <si>
+    <t>ＹＥＳ^0^</t>
+  </si>
+  <si>
+    <t>^81 40^是^81 40^^0^</t>
+  </si>
+  <si>
+    <t>ＮＯ^0^</t>
+  </si>
+  <si>
+    <t>否^81 40^^0^</t>
+  </si>
+  <si>
+    <t>^81 40^</t>
+  </si>
+  <si>
     <t>关^81 40^^81 40^^0^</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开^81 40^^0^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ＹＥＳ^a^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^81 40^是^81 40^^a^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ＮＯ^a^</t>
-  </si>
-  <si>
-    <t>否^81 40^^a^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^25^</t>
-  </si>
-  <si>
-    <t>^30^</t>
-  </si>
-  <si>
-    <t>^33^</t>
-  </si>
-  <si>
-    <t>^64^</t>
-  </si>
-  <si>
-    <t>^a^</t>
-  </si>
-  <si>
-    <t>ＹＥＳ^0^</t>
-  </si>
-  <si>
-    <t>^81 40^是^81 40^^0^</t>
-  </si>
-  <si>
-    <t>ＮＯ^0^</t>
-  </si>
-  <si>
-    <t>否^81 40^^0^</t>
-  </si>
-  <si>
-    <t>^81 40^</t>
+    <t>^82 78 82 64 82 72^^a^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^82 6d 82 6e^^a^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -207,14 +212,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -248,27 +253,98 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -303,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,9 +629,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -574,12 +650,12 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -587,7 +663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -595,7 +671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -603,23 +679,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -627,7 +703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -635,7 +711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -643,15 +719,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -659,15 +735,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -675,47 +751,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -723,28 +799,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -761,9 +837,9 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -771,7 +847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -793,9 +869,9 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -803,7 +879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -814,6 +890,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -825,9 +902,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -843,7 +920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -851,7 +928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -859,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -867,7 +944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -875,7 +952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -883,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -891,7 +968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -899,7 +976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
